--- a/Meeting_documents/Simulation_output.xlsx
+++ b/Meeting_documents/Simulation_output.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kristofferwild/Dropbox/Lampro_survival/Meeting_documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C25DAB59-2E54-6B4F-8194-E31468361C1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98478CBC-DD39-204F-8269-AE95B58A8D4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34560" yWindow="3720" windowWidth="38400" windowHeight="21600" xr2:uid="{A36F7BF9-E1D0-E941-B2A4-163D6F3E5196}"/>
+    <workbookView xWindow="34560" yWindow="4220" windowWidth="38400" windowHeight="19940" xr2:uid="{A36F7BF9-E1D0-E941-B2A4-163D6F3E5196}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -89,10 +89,10 @@
     <t>EG 30%</t>
   </si>
   <si>
-    <t xml:space="preserve">Emperical </t>
-  </si>
-  <si>
     <t>Null simulation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Empirical </t>
   </si>
 </sst>
 </file>
@@ -147,7 +147,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -202,30 +202,73 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -255,31 +298,46 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -597,7 +655,7 @@
   <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="91" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4:S7"/>
+      <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -608,7 +666,7 @@
     <col min="5" max="5" width="21.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="24.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12" customWidth="1"/>
     <col min="11" max="11" width="14.1640625" bestFit="1" customWidth="1"/>
     <col min="12" max="14" width="7.5" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="11" bestFit="1" customWidth="1"/>
@@ -618,227 +676,227 @@
   <sheetData>
     <row r="1" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="3" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="T3" s="26"/>
+      <c r="T3" s="20"/>
     </row>
     <row r="4" spans="1:20" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="26"/>
-      <c r="B4" s="21" t="s">
+      <c r="A4" s="20"/>
+      <c r="B4" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="E4" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="17" t="s">
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="17"/>
-      <c r="N4" s="17"/>
-      <c r="O4" s="18" t="s">
+      <c r="K4" s="29"/>
+      <c r="L4" s="29"/>
+      <c r="M4" s="29"/>
+      <c r="N4" s="29"/>
+      <c r="O4" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="P4" s="18"/>
-      <c r="Q4" s="18"/>
-      <c r="R4" s="18"/>
-      <c r="S4" s="18"/>
-      <c r="T4" s="26"/>
+      <c r="P4" s="30"/>
+      <c r="Q4" s="30"/>
+      <c r="R4" s="30"/>
+      <c r="S4" s="30"/>
+      <c r="T4" s="20"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A5" s="26"/>
-      <c r="B5" s="22" t="s">
+      <c r="A5" s="20"/>
+      <c r="B5" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="4">
         <v>23</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="14" t="s">
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="I5" s="15" t="s">
+      <c r="I5" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="J5" s="16" t="s">
+      <c r="J5" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="K5" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="K5" s="16" t="s">
+      <c r="L5" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="M5" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="N5" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="O5" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="L5" s="16" t="s">
+      <c r="P5" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q5" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="M5" s="16" t="s">
+      <c r="R5" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="N5" s="16" t="s">
+      <c r="S5" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="O5" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="P5" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q5" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="R5" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="S5" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="T5" s="26"/>
+      <c r="T5" s="20"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A6" s="26"/>
-      <c r="B6" s="23"/>
-      <c r="C6" s="15">
+      <c r="A6" s="20"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="14">
         <v>28</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="D6" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="15" t="s">
+      <c r="E6" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="19" t="s">
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="I6" s="5">
+      <c r="I6" s="22">
         <v>23</v>
       </c>
-      <c r="J6" s="5" t="s">
+      <c r="J6" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="K6" s="6">
+      <c r="K6" s="5">
         <v>0.104</v>
       </c>
-      <c r="L6" s="6">
+      <c r="L6" s="5">
         <v>0.11799999999999999</v>
       </c>
-      <c r="M6" s="6">
+      <c r="M6" s="5">
         <v>0.11600000000000001</v>
       </c>
-      <c r="N6" s="5">
-        <v>0.105</v>
-      </c>
-      <c r="O6" s="5" t="s">
+      <c r="N6" s="22">
+        <v>0.13100000000000001</v>
+      </c>
+      <c r="O6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="P6" s="7">
+      <c r="P6" s="6">
         <v>46</v>
       </c>
-      <c r="Q6" s="8">
+      <c r="Q6" s="7">
         <v>48</v>
       </c>
-      <c r="R6" s="8">
+      <c r="R6" s="7">
         <v>49</v>
       </c>
-      <c r="S6" s="8">
+      <c r="S6" s="7">
         <v>51</v>
       </c>
-      <c r="T6" s="26"/>
+      <c r="T6" s="20"/>
     </row>
     <row r="7" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="26"/>
-      <c r="B7" s="24" t="s">
+      <c r="A7" s="20"/>
+      <c r="B7" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="4">
         <v>23</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="9">
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="23">
         <v>28</v>
       </c>
-      <c r="J7" s="9" t="s">
+      <c r="J7" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="K7" s="10">
+      <c r="K7" s="9">
         <v>0.14000000000000001</v>
       </c>
-      <c r="L7" s="11">
+      <c r="L7" s="10">
         <v>0.124</v>
       </c>
-      <c r="M7" s="11">
-        <v>0.108</v>
-      </c>
-      <c r="N7" s="9">
-        <v>0.13100000000000001</v>
-      </c>
-      <c r="O7" s="9" t="s">
+      <c r="M7" s="10">
+        <v>0.109</v>
+      </c>
+      <c r="N7" s="23">
+        <v>0.105</v>
+      </c>
+      <c r="O7" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="P7" s="12">
+      <c r="P7" s="11">
         <v>32</v>
       </c>
-      <c r="Q7" s="13">
+      <c r="Q7" s="12">
         <v>31</v>
       </c>
-      <c r="R7" s="13">
+      <c r="R7" s="12">
         <v>30</v>
       </c>
-      <c r="S7" s="13">
+      <c r="S7" s="12">
         <v>29</v>
       </c>
-      <c r="T7" s="26"/>
+      <c r="T7" s="20"/>
     </row>
     <row r="8" spans="1:20" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="26"/>
-      <c r="B8" s="25"/>
-      <c r="C8" s="9">
+      <c r="A8" s="20"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="8">
         <v>28</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
-      <c r="T8" s="26"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="T8" s="20"/>
     </row>
     <row r="9" spans="1:20" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="26"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
+      <c r="A9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="B7:B8"/>
+    <mergeCell ref="J4:N4"/>
+    <mergeCell ref="O4:S4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Meeting_documents/Simulation_output.xlsx
+++ b/Meeting_documents/Simulation_output.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kristofferwild/Dropbox/Lampro_survival/Meeting_documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98478CBC-DD39-204F-8269-AE95B58A8D4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72F408D1-0D3B-5043-A403-FB13600EAFE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34560" yWindow="4220" windowWidth="38400" windowHeight="19940" xr2:uid="{A36F7BF9-E1D0-E941-B2A4-163D6F3E5196}"/>
+    <workbookView xWindow="34560" yWindow="3720" windowWidth="38400" windowHeight="21600" xr2:uid="{A36F7BF9-E1D0-E941-B2A4-163D6F3E5196}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="24">
   <si>
     <t>Species</t>
   </si>
@@ -93,6 +93,21 @@
   </si>
   <si>
     <t xml:space="preserve">Empirical </t>
+  </si>
+  <si>
+    <t>EO -10%</t>
+  </si>
+  <si>
+    <t>EO -20%</t>
+  </si>
+  <si>
+    <t>EO -30%</t>
+  </si>
+  <si>
+    <t>EO -50%</t>
+  </si>
+  <si>
+    <t>EO -40%</t>
   </si>
 </sst>
 </file>
@@ -298,12 +313,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -337,6 +346,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -652,10 +667,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC7B9BB5-9168-6843-8242-C99DEBC23F5F}">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:AI9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="91" workbookViewId="0">
-      <selection activeCell="P8" sqref="P8"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="91" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4:S7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -672,15 +687,19 @@
     <col min="15" max="15" width="11" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="14.1640625" bestFit="1" customWidth="1"/>
     <col min="17" max="19" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12" customWidth="1"/>
+    <col min="30" max="30" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="T3" s="20"/>
+    <row r="1" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="1:35" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="T3" s="18"/>
     </row>
-    <row r="4" spans="1:20" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="20"/>
-      <c r="B4" s="19" t="s">
+    <row r="4" spans="1:35" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="18"/>
+      <c r="B4" s="17" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="16" t="s">
@@ -692,29 +711,47 @@
       <c r="E4" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
       <c r="H4" s="2"/>
       <c r="I4" s="3"/>
-      <c r="J4" s="29" t="s">
+      <c r="J4" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="29"/>
-      <c r="L4" s="29"/>
-      <c r="M4" s="29"/>
-      <c r="N4" s="29"/>
-      <c r="O4" s="30" t="s">
+      <c r="K4" s="27"/>
+      <c r="L4" s="27"/>
+      <c r="M4" s="27"/>
+      <c r="N4" s="27"/>
+      <c r="O4" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="P4" s="30"/>
-      <c r="Q4" s="30"/>
-      <c r="R4" s="30"/>
-      <c r="S4" s="30"/>
-      <c r="T4" s="20"/>
+      <c r="P4" s="28"/>
+      <c r="Q4" s="28"/>
+      <c r="R4" s="28"/>
+      <c r="S4" s="28"/>
+      <c r="T4" s="18"/>
+      <c r="V4" s="2"/>
+      <c r="W4" s="3"/>
+      <c r="X4" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y4" s="27"/>
+      <c r="Z4" s="27"/>
+      <c r="AA4" s="27"/>
+      <c r="AB4" s="27"/>
+      <c r="AC4" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD4" s="28"/>
+      <c r="AE4" s="28"/>
+      <c r="AF4" s="28"/>
+      <c r="AG4" s="28"/>
+      <c r="AH4" s="28"/>
+      <c r="AI4" s="28"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A5" s="20"/>
-      <c r="B5" s="25" t="s">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A5" s="18"/>
+      <c r="B5" s="23" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="4">
@@ -726,12 +763,12 @@
       <c r="E5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
       <c r="H5" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="I5" s="24" t="s">
+      <c r="I5" s="22" t="s">
         <v>13</v>
       </c>
       <c r="J5" s="15" t="s">
@@ -746,7 +783,7 @@
       <c r="M5" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="N5" s="21" t="s">
+      <c r="N5" s="19" t="s">
         <v>16</v>
       </c>
       <c r="O5" s="15" t="s">
@@ -764,11 +801,53 @@
       <c r="S5" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="T5" s="20"/>
+      <c r="T5" s="18"/>
+      <c r="V5" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="W5" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="X5" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y5" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z5" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA5" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB5" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC5" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD5" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="AE5" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="AF5" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="AG5" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="AH5" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="AI5" s="15" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A6" s="20"/>
-      <c r="B6" s="26"/>
+    <row r="6" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A6" s="18"/>
+      <c r="B6" s="24"/>
       <c r="C6" s="14">
         <v>28</v>
       </c>
@@ -778,12 +857,12 @@
       <c r="E6" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="17" t="s">
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="I6" s="22">
+      <c r="I6" s="20">
         <v>23</v>
       </c>
       <c r="J6" s="4" t="s">
@@ -798,7 +877,7 @@
       <c r="M6" s="5">
         <v>0.11600000000000001</v>
       </c>
-      <c r="N6" s="22">
+      <c r="N6" s="20">
         <v>0.13100000000000001</v>
       </c>
       <c r="O6" s="4" t="s">
@@ -816,11 +895,53 @@
       <c r="S6" s="7">
         <v>51</v>
       </c>
-      <c r="T6" s="20"/>
+      <c r="T6" s="18"/>
+      <c r="V6" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="W6" s="20">
+        <v>23</v>
+      </c>
+      <c r="X6" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y6" s="5">
+        <v>0.113</v>
+      </c>
+      <c r="Z6" s="5">
+        <v>0.11</v>
+      </c>
+      <c r="AA6" s="5">
+        <v>0.107</v>
+      </c>
+      <c r="AB6" s="5">
+        <v>0.104</v>
+      </c>
+      <c r="AC6" s="20">
+        <v>0.10100000000000001</v>
+      </c>
+      <c r="AD6" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE6" s="6">
+        <v>49</v>
+      </c>
+      <c r="AF6" s="6">
+        <v>49</v>
+      </c>
+      <c r="AG6" s="6">
+        <v>49</v>
+      </c>
+      <c r="AH6" s="6">
+        <v>49</v>
+      </c>
+      <c r="AI6" s="6">
+        <v>49</v>
+      </c>
     </row>
-    <row r="7" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="20"/>
-      <c r="B7" s="27" t="s">
+    <row r="7" spans="1:35" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="18"/>
+      <c r="B7" s="25" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="4">
@@ -832,10 +953,10 @@
       <c r="E7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="23">
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="21">
         <v>28</v>
       </c>
       <c r="J7" s="8" t="s">
@@ -850,7 +971,7 @@
       <c r="M7" s="10">
         <v>0.109</v>
       </c>
-      <c r="N7" s="23">
+      <c r="N7" s="21">
         <v>0.105</v>
       </c>
       <c r="O7" s="8" t="s">
@@ -868,11 +989,51 @@
       <c r="S7" s="12">
         <v>29</v>
       </c>
-      <c r="T7" s="20"/>
+      <c r="T7" s="18"/>
+      <c r="V7" s="30"/>
+      <c r="W7" s="21">
+        <v>28</v>
+      </c>
+      <c r="X7" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y7" s="9">
+        <v>0.106</v>
+      </c>
+      <c r="Z7" s="10">
+        <v>0.104</v>
+      </c>
+      <c r="AA7" s="10">
+        <v>0.10100000000000001</v>
+      </c>
+      <c r="AB7" s="10">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="AC7" s="21">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="AD7" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE7" s="11">
+        <v>30</v>
+      </c>
+      <c r="AF7" s="12">
+        <v>30</v>
+      </c>
+      <c r="AG7" s="12">
+        <v>30</v>
+      </c>
+      <c r="AH7" s="12">
+        <v>30</v>
+      </c>
+      <c r="AI7" s="12">
+        <v>30</v>
+      </c>
     </row>
-    <row r="8" spans="1:20" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="20"/>
-      <c r="B8" s="28"/>
+    <row r="8" spans="1:35" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="18"/>
+      <c r="B8" s="26"/>
       <c r="C8" s="8">
         <v>28</v>
       </c>
@@ -882,21 +1043,25 @@
       <c r="E8" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
-      <c r="T8" s="20"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="T8" s="18"/>
     </row>
-    <row r="9" spans="1:20" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
+    <row r="9" spans="1:35" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="8">
+    <mergeCell ref="V6:V7"/>
+    <mergeCell ref="H6:H7"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="J4:N4"/>
     <mergeCell ref="O4:S4"/>
+    <mergeCell ref="X4:AB4"/>
+    <mergeCell ref="AC4:AI4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
